--- a/lecture/xlsx/result.xlsx
+++ b/lecture/xlsx/result.xlsx
@@ -421,7 +421,7 @@
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=24452</v>
       </c>
       <c r="C4">
-        <v>9.4</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="5">

--- a/lecture/xlsx/result.xlsx
+++ b/lecture/xlsx/result.xlsx
@@ -398,9 +398,6 @@
       <c r="B2" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=18847</v>
       </c>
-      <c r="C2">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -409,9 +406,6 @@
       <c r="B3" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=62266</v>
       </c>
-      <c r="C3">
-        <v>9.07</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -420,9 +414,6 @@
       <c r="B4" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=24452</v>
       </c>
-      <c r="C4">
-        <v>9.39</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -431,9 +422,6 @@
       <c r="B5" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=31794</v>
       </c>
-      <c r="C5">
-        <v>9.28</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -442,9 +430,6 @@
       <c r="B6" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=72363</v>
       </c>
-      <c r="C6">
-        <v>8.79</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -453,9 +438,6 @@
       <c r="B7" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=100931</v>
       </c>
-      <c r="C7">
-        <v>9.12</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -464,9 +446,6 @@
       <c r="B8" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=61521</v>
       </c>
-      <c r="C8">
-        <v>8.85</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -475,9 +454,6 @@
       <c r="B9" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=30688</v>
       </c>
-      <c r="C9">
-        <v>9.22</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -486,9 +462,6 @@
       <c r="B10" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=62586</v>
       </c>
-      <c r="C10">
-        <v>9.33</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -496,9 +469,6 @@
       </c>
       <c r="B11" t="str">
         <v>https://movie.naver.com/movie/bi/mi/basic.nhn?code=37148</v>
-      </c>
-      <c r="C11">
-        <v>9.08</v>
       </c>
     </row>
   </sheetData>
